--- a/INTLINE/data/548/BNM/Gross National Income (GNI) by Expenditure Components in ConstantA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross National Income (GNI) by Expenditure Components in ConstantA_historical.xlsx
@@ -1,37 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income (GNI) by" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income (GNI) by" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ConstantFinal consumption expenditureTotal</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePrivate sector</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePublic sector</t>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationTotal</t>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationPrivate sector</t>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationPublic sector</t>
+  </si>
+  <si>
+    <t>ConstantChanges in inventories and valuables</t>
+  </si>
+  <si>
+    <t>ConstantExports of goods and services</t>
+  </si>
+  <si>
+    <t>ConstantImports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditureTotal</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditurePrivate sector</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditurePublic sector</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationTotal</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationPrivate sector</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationPublic sector</t>
+  </si>
+  <si>
+    <t>CurrentChanges in inventories and valuables</t>
+  </si>
+  <si>
+    <t>CurrentExports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentImports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentGross National Income</t>
+  </si>
+  <si>
+    <t>CurrentMid-year population</t>
+  </si>
+  <si>
+    <t>CurrentGross national savings</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +117,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +136,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,3871 +433,3298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BW22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:76">
+      <c r="B1" s="1">
         <v>1948</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1949</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1950</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1951</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1952</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1953</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1954</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1955</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1956</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1957</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1958</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1959</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1960</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1961</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1962</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1963</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1964</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1965</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1966</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1967</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1968</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1969</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1970</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1971</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1972</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1973</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1974</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1975</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1976</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1977</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1978</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1979</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1980</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1981</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1982</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1983</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1984</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1985</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1986</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1987</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1988</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1989</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1990</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1991</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1992</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1993</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1994</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1995</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1996</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1997</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>1998</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>1999</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>2000</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>2001</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2002</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2003</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2004</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2005</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2006</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2007</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2008</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2009</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2010</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2011</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2012</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2013</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2014</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2015</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2016</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2017</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2018</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2019</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="1">
         <v>2020</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="1">
         <v>2021</v>
       </c>
+      <c r="BX1" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ConstantFinal consumption expenditureTotal</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="n">
+    <row r="2" spans="1:76">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>185614.36893745</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>194354.53377372</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>207333.614535792</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>226173.867809861</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>250032.688570644</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>264290.520030529</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>276337.58574002</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>248730.029045217</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>262381.309992506</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>289133.375490079</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>304569.967584472</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>321253.369321518</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>347653.536966803</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>380258.71777563</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>412807.018558343</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>439142.783378034</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>481579.791989564</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>521807.039335037</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>529177.31371233</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>561825.2227910419</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>608482.5276761591</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>655573.544232032</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>701170.196624421</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>746393.385719216</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>789120.558</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>827899.8829999999</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>883151.4</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>946083.3019999999</v>
       </c>
-      <c r="BU2" t="n">
-        <v>1008790.247</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>979359.96</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1006132.947</v>
+      <c r="BU2">
+        <v>1008373.359</v>
+      </c>
+      <c r="BV2">
+        <v>981741.554</v>
+      </c>
+      <c r="BW2">
+        <v>1006200.873</v>
+      </c>
+      <c r="BX2">
+        <v>266685.47</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ConstantFinal consumption expenditurePrivate sector</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="n">
+    <row r="3" spans="1:76">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3">
         <v>149178.962065908</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>156123.725794938</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>165883.466645757</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>181458.520461522</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>202611.628192978</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>216520.927133888</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>225853.107885332</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>202735.200445697</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>208530.7416996</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>236419.13415839</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>243578.066949964</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>253009.604745305</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>273535.820798002</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>300476.574174431</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>327846.557912502</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>349517.997805761</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>386019.707433426</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>419679.574377164</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>422002.73313902</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>450961.684299501</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>481917.272496012</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>522135.234544547</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>559984.548143118</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>599051.274023053</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>635099.434</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>672260.281</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>718701.809</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>776053.764</v>
       </c>
-      <c r="BU3" t="n">
-        <v>835710.564</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>799446.749</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>814288.846</v>
+      <c r="BU3">
+        <v>835714.307</v>
+      </c>
+      <c r="BV3">
+        <v>800513.809</v>
+      </c>
+      <c r="BW3">
+        <v>815388.009</v>
+      </c>
+      <c r="BX3">
+        <v>221036.068</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ConstantFinal consumption expenditurePublic sector</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
+    <row r="4" spans="1:76">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4">
         <v>36435.4068715416</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>38230.8079787821</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>41450.1478900346</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>44715.3473483389</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>47421.0603776661</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>47769.5928966413</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>50484.4778546882</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>45994.8285995198</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>53850.5682929062</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>52714.2413316893</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>60991.9006345083</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>68243.7645762132</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>74117.7161688011</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>79782.14360119939</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>84960.46064584079</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>89624.78557227339</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>95560.08455613771</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>102127.464957873</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>107174.58057331</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>110863.538491541</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>126565.255180147</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>133438.309687485</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>141185.648481303</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>147342.111696163</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>154021.124</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>155639.602</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>164449.591</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>170029.538</v>
       </c>
-      <c r="BU4" t="n">
-        <v>173079.683</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>179913.211</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>191844.101</v>
+      <c r="BU4">
+        <v>172659.052</v>
+      </c>
+      <c r="BV4">
+        <v>181227.745</v>
+      </c>
+      <c r="BW4">
+        <v>190812.864</v>
+      </c>
+      <c r="BX4">
+        <v>45649.402</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ConstantGross fixed capital formationTotal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
+    <row r="5" spans="1:76">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS5">
         <v>95640.7400935492</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>106149.634491853</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>125048.220358314</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>145203.517490582</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>178368.063695029</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>193026.065613716</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>210707.144321293</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>120173.835814675</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>112315.578500118</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>140624.025243673</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>137725.429228593</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>138519.501059813</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>142458.658604084</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>147521.061165005</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>156840.336285593</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>166665.739049735</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>183931.022091772</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>188260.926350465</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>183162.583733896</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>204913.01122036</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>217926.608573056</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>259296.816766988</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>280377.198876503</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>293808.868051193</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>304423.412</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>312190.085</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>331092.542</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>335592.467</v>
       </c>
-      <c r="BU5" t="n">
-        <v>328580.923</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>281059.761</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>278516.446</v>
+      <c r="BU5">
+        <v>328535.72</v>
+      </c>
+      <c r="BV5">
+        <v>281173.372</v>
+      </c>
+      <c r="BW5">
+        <v>278703.25</v>
+      </c>
+      <c r="BX5">
+        <v>73632.36199999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ConstantGross fixed capital formationPrivate sector</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="n">
+    <row r="6" spans="1:76">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR6">
         <v>124842.927735179</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>102290.914227624</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>99870.9724988417</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>80775.3154129396</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>64839.4427787066</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>50615.9654213157</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>45482.3053865413</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>41563.0207563889</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>92821.01142415989</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>120318.078796974</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>91046.9399190298</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>107989.163475511</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>140842.057041392</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>129449.495795188</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>88371.31852226191</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>85586.7381194429</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>89979.214572823</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>102180.968807556</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>102233.952495986</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>94635.317146313</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>112039.810483421</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>122627.573127163</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>148820.450206542</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>167795.906553534</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>186436.209110193</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>198149.518</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>206977.212</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>225593.631</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>235343.203</v>
       </c>
-      <c r="BU6" t="n">
-        <v>239077.42</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>210638.616</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>216140.912</v>
+      <c r="BU6">
+        <v>239027.428</v>
+      </c>
+      <c r="BV6">
+        <v>210651.122</v>
+      </c>
+      <c r="BW6">
+        <v>216147.583</v>
+      </c>
+      <c r="BX6">
+        <v>59461.013</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ConstantGross fixed capital formationPublic sector</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="n">
+    <row r="7" spans="1:76">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR7">
         <v>217624.058495405</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>176944.676000287</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>138592.051738579</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>127529.926752095</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>126156.768065848</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>113330.673881789</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>112792.482512257</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>104037.047479103</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>113613.963948173</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>97996.37928889789</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>81760.89989345369</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>72153.2956040607</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>59804.3482242456</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>60005.4130540648</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>76397.6071154658</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>71502.1651955347</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>76956.3370479335</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>82030.95260450779</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>86328.2576978311</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>88848.66741719931</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>93195.3668184556</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>95589.22378472039</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>110776.517089457</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>112803.211190821</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>107445.103572146</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>106273.894</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>105212.873</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>105498.911</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>100249.265</v>
       </c>
-      <c r="BU7" t="n">
-        <v>89503.503</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>70421.145</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>62375.534</v>
+      <c r="BU7">
+        <v>89508.292</v>
+      </c>
+      <c r="BV7">
+        <v>70522.25</v>
+      </c>
+      <c r="BW7">
+        <v>62555.667</v>
+      </c>
+      <c r="BX7">
+        <v>14171.348</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ConstantChanges in inventories and valuables</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="n">
+    <row r="8" spans="1:76">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS8">
         <v>3974.43963141247</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>-3864.10515803551</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>1069.764680609</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>3564.28321924071</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>215.871801431833</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>-4559.69205617671</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>-662.006842835673</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>-556.46952082948</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>3010.21227581255</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>8300.22616096202</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>-2142.32769966061</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>7254.9358310322</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>1426.73997945004</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>5990.8294242403</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>2082.15706859992</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>13845.3137361891</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>7858.59677862098</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>4943.57688146573</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>-35796.6092458423</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>33516.544178365</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>20561.2180016515</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>18399.137076796</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>-13470.1073492981</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>-38059.4880264244</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>-5194.786</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>297.253</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>1031.922</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>-8677.708000000001</v>
       </c>
-      <c r="BU8" t="n">
-        <v>-13986.675</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>-4345.723</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>18630.544</v>
+      <c r="BU8">
+        <v>-13882.584</v>
+      </c>
+      <c r="BV8">
+        <v>-4840.223</v>
+      </c>
+      <c r="BW8">
+        <v>18362.42</v>
+      </c>
+      <c r="BX8">
+        <v>5759.641</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>ConstantExports of goods and services</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="n">
+    <row r="9" spans="1:76">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS9">
         <v>188916.186861243</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>212711.679668099</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>237264.002217322</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>289240.77381501</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>344093.923567474</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>375844.63256278</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>396483.124816362</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>398430.473289099</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>450877.074588485</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>523315.265242617</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>487571.980775041</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>514034.144279263</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>540425.225712078</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>627207.935084761</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>679164.061110033</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>724546.873699271</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>751888.557546756</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>763716.774030132</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>680635.948076488</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>756296.471669826</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>787905.0728679</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>774180.898684659</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>776187.945302751</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>815309.99700676</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>817370.247</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>828155.275</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>900063.996</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>917462.147</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>907877.022</v>
       </c>
-      <c r="BV9" t="n">
-        <v>827085.579</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>958454.796</v>
+      <c r="BV9">
+        <v>830156.773</v>
+      </c>
+      <c r="BW9">
+        <v>958333.678</v>
+      </c>
+      <c r="BX9">
+        <v>251892</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>ConstantImports of goods and services</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
+    <row r="10" spans="1:76">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS10">
         <v>168547.783879946</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>179287.272518946</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>206247.362718997</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>259118.006182283</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>320523.932636898</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>336183.236873739</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>355764.494667827</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>289044.953636843</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>319579.527688305</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>397472.939896846</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>364737.748363305</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>387301.394816553</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>404860.752033643</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>484360.661348474</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>527936.024338111</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>571068.799320796</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>604843.361607544</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>618991.731784981</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>540185.84347592</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>624696.995396215</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>664116.912871936</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>683456.339378158</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>695238.407622328</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>722971.5671677981</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>728778.243</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>739229.999</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>814570.841</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>826693.8149999999</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>806951.5550000001</v>
       </c>
-      <c r="BV10" t="n">
-        <v>739279.5429999999</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>875756.453</v>
+      <c r="BV10">
+        <v>743087.214</v>
+      </c>
+      <c r="BW10">
+        <v>874861.91</v>
+      </c>
+      <c r="BX10">
+        <v>237730.705</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>CurrentFinal consumption expenditureTotal</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
+    <row r="11" spans="1:76">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
         <v>3611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3861</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>3989</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>3946</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>4159</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>4361</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>4632</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>4941</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>6089</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>6509</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>6981</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>7501</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>7925</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>8167</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>8549</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>9257</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>10081</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>11351</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>13242</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>16292</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>17010</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>19016</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>22200</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>25674</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>28881</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>35757</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>41019</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>44695</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>47473</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>51335</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>52127</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>48626</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>51123</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>58592</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>67417</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>78113</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>89005</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>95353</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>104894</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>118061</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>134140</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>144972</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>158124</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>145388</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>158100</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>192170</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>205066</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>222141</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>240980</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>268206</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>302556</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>331231</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>377377</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>432796</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>441185</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>498591</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>558333</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>616680</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>667456</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>727460</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>789120.558</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>841703.978</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>927466.61</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>1004676.602</v>
       </c>
-      <c r="BU11" t="n">
-        <v>1080868.43</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>1045801.694</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>1091151.862</v>
+      <c r="BU11">
+        <v>1080469.733</v>
+      </c>
+      <c r="BV11">
+        <v>1048342.495</v>
+      </c>
+      <c r="BW11">
+        <v>1091352.777</v>
+      </c>
+      <c r="BX11">
+        <v>294101.826</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>CurrentFinal consumption expenditurePrivate sector</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+    <row r="12" spans="1:76">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
         <v>2964</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>3156</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>3251</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>3178</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>3385</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>3634</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>3838</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>4086</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>4899</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>5131</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>5446</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>5761</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>6221</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>6423</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>6723</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>7095</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>7911</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>8613</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>10308</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>12776</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>13086</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>14715</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>16812</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>19584</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>22406</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>26946</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>30594</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>33226</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>36458</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>39594</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>40283</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>36499</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>39063</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>45444</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>52619</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>61687</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>70501</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>75749</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>83144</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>94088</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>106613</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>116794</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>127783</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>117718</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>125056</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>155941</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>162618</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>172485</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>186674</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>208571</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>240188</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>264584</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>300418</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>344215</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>348168</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>395245</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>437340</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>482238</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BO12">
         <v>527749</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BP12">
         <v>579985</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BQ12">
         <v>635099.434</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BR12">
         <v>684680.74</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>760146.473</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>831387.79</v>
       </c>
-      <c r="BU12" t="n">
-        <v>904158.451</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>861758.251</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>893626.569</v>
+      <c r="BU12">
+        <v>904188.887</v>
+      </c>
+      <c r="BV12">
+        <v>862954.629</v>
+      </c>
+      <c r="BW12">
+        <v>894881.2</v>
+      </c>
+      <c r="BX12">
+        <v>246665.616</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>CurrentFinal consumption expenditurePublic sector</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
+    <row r="13" spans="1:76">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
         <v>647</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>705</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>738</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>768</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>774</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>727</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>794</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>855</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>1190</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>1378</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>1535</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>1740</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>1704</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>1744</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>1826</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>2162</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>2170</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>2738</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>2934</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>3516</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>3924</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>4301</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>5388</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>6090</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>6475</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>8811</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>10425</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>11469</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>11015</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>11741</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>11844</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>12127</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>12060</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>13148</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>14798</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>16426</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>18504</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13">
         <v>19604</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>21750</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>23973</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>27527</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>28178</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>30341</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13">
         <v>27670</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13">
         <v>33044</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13">
         <v>36229</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC13">
         <v>42448</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD13">
         <v>49656</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13">
         <v>54306</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>59635</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>62368</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>66647</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>76959</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>88581</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>93017</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>103346</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BM13">
         <v>120993</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BN13">
         <v>134442</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BO13">
         <v>139707</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BP13">
         <v>147475</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BQ13">
         <v>154021.124</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BR13">
         <v>157023.238</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BS13">
         <v>167320.137</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BT13">
         <v>173288.812</v>
       </c>
-      <c r="BU13" t="n">
-        <v>176709.979</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>184043.443</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>197525.293</v>
+      <c r="BU13">
+        <v>176280.846</v>
+      </c>
+      <c r="BV13">
+        <v>185387.866</v>
+      </c>
+      <c r="BW13">
+        <v>196471.577</v>
+      </c>
+      <c r="BX13">
+        <v>47436.21</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>CurrentGross fixed capital formationTotal</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
+    <row r="14" spans="1:76">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
         <v>460</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>557</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>630</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>580</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>580</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>652</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>777</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>968</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>1469</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>1531</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>1662</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>1722</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>1507</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>1546</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>1457</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>1756</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>2701</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>3211</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>4219</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>5798</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>5602</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>6206</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>7465</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>9381</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>12250</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>16597</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>20759</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>22745</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>25213</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>25391</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>23124</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>18865</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>17904</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>22726</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>30599</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14">
         <v>39348</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14">
         <v>49126</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>55191</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>66937</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14">
         <v>78664</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14">
         <v>96967</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14">
         <v>107825</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>121494</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14">
         <v>75982</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14">
         <v>65841</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BB14">
         <v>90141</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC14">
         <v>88580</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD14">
         <v>89995</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14">
         <v>93864</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>99336</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>121237</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>131024</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>149064</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>158381</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>156660</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>184292</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BM14">
         <v>202251</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BN14">
         <v>246343</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BO14">
         <v>269699</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BP14">
         <v>287393</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BQ14">
         <v>304423.412</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BR14">
         <v>318895.206</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BS14">
         <v>343941.537</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BT14">
         <v>350364.558</v>
       </c>
-      <c r="BU14" t="n">
-        <v>347021.647</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>296558.396</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>297915.686</v>
+      <c r="BU14">
+        <v>346973.429</v>
+      </c>
+      <c r="BV14">
+        <v>296666.487</v>
+      </c>
+      <c r="BW14">
+        <v>298145.606</v>
+      </c>
+      <c r="BX14">
+        <v>80585.576</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>CurrentGross fixed capital formationPrivate sector</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="n">
+    <row r="15" spans="1:76">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ15">
         <v>20769.61</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15">
         <v>28245.85</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15">
         <v>35173.75</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15">
         <v>36465.48</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15">
         <v>46420.07</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15">
         <v>58525.75</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15">
         <v>75232.67999999999</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15">
         <v>86030.37</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15">
         <v>97173.74000000001</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15">
         <v>47712.89</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15">
         <v>34000.14</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB15">
         <v>47792</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC15">
         <v>40509</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD15">
         <v>30939</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15">
         <v>33798</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BF15">
         <v>50592</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BG15">
         <v>66229</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BH15">
         <v>70918</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BI15">
         <v>83337</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BJ15">
         <v>86114</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BK15">
         <v>81028</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BL15">
         <v>101291</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BM15">
         <v>114759</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BN15">
         <v>142307</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BO15">
         <v>162791</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BP15">
         <v>183885</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BQ15">
         <v>198149.518</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BR15">
         <v>211524.752</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BS15">
         <v>234519.683</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BT15">
         <v>245818.529</v>
       </c>
-      <c r="BU15" t="n">
-        <v>252571.922</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>222238.103</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>230998.631</v>
+      <c r="BU15">
+        <v>252475.703</v>
+      </c>
+      <c r="BV15">
+        <v>222259.194</v>
+      </c>
+      <c r="BW15">
+        <v>231148.552</v>
+      </c>
+      <c r="BX15">
+        <v>65378.618</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>CurrentGross fixed capital formationPublic sector</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
+    <row r="16" spans="1:76">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16">
         <v>1224.06</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>1595.84</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>2048.19</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>2431.62</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>3037.34</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>2757.78</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>4013.87</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>6021.29</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>9020.77</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>11044.7</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16">
         <v>12154.21</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16">
         <v>11693.13</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16">
         <v>10536.05</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16">
         <v>8385.93</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16">
         <v>7058</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16">
         <v>7713.23</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16">
         <v>10771.93</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16">
         <v>12893.89</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16">
         <v>16179.73</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16">
         <v>20909.98</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16">
         <v>23394.99</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16">
         <v>23934.7</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16">
         <v>26736.16</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX16">
         <v>27603.97</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY16">
         <v>30890.78</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ16">
         <v>31016.98</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA16">
         <v>33456.36</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB16">
         <v>42349</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC16">
         <v>48071</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD16">
         <v>59056</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BE16">
         <v>60066</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BF16">
         <v>48744</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BG16">
         <v>55008</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BH16">
         <v>60105</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BI16">
         <v>65727</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BJ16">
         <v>72268</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BK16">
         <v>75633</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BL16">
         <v>83001</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BM16">
         <v>87492</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BN16">
         <v>104037</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BO16">
         <v>106908</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BP16">
         <v>103508</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BQ16">
         <v>106273.894</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BR16">
         <v>107370.454</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BS16">
         <v>109421.854</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BT16">
         <v>104546.029</v>
       </c>
-      <c r="BU16" t="n">
-        <v>94449.726</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>74320.29300000001</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>66917.05499999999</v>
+      <c r="BU16">
+        <v>94497.726</v>
+      </c>
+      <c r="BV16">
+        <v>74407.29300000001</v>
+      </c>
+      <c r="BW16">
+        <v>66997.05499999999</v>
+      </c>
+      <c r="BX16">
+        <v>15206.958</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>CurrentChanges in inventories and valuables</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
+    <row r="17" spans="1:76">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>21</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>26</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>34</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>-60</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>43</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>12</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>40</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>-7</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>5</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>20</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>92</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>123</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>68</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>315</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>-13</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>-150</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>207</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>714</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>-381</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>-71</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>247</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>723</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>1173</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17">
         <v>-380</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17">
         <v>-602</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17">
         <v>593</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17">
         <v>1253</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17">
         <v>1306</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17">
         <v>-1757</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17">
         <v>-261</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17">
         <v>812</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17">
         <v>1624</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17">
         <v>835</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17">
         <v>-813</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17">
         <v>1938</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17">
         <v>-1906</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17">
         <v>535</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17">
         <v>1870</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17">
         <v>120</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX17">
         <v>-2579</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY17">
         <v>-398</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ17">
         <v>-427</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA17">
         <v>1476</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB17">
         <v>5615</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC17">
         <v>-2557</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD17">
         <v>4955</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BE17">
         <v>1462</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BF17">
         <v>9930</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BG17">
         <v>505</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BH17">
         <v>4467</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BI17">
         <v>6689</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BJ17">
         <v>6837</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BK17">
         <v>-29517</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BL17">
         <v>7813</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BM17">
         <v>9164</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BN17">
         <v>3741</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BO17">
         <v>-5500</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BP17">
         <v>-11030</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BQ17">
         <v>-5194.786</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BR17">
         <v>5970.108</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BS17">
         <v>6647.169</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BT17">
         <v>-4387.358</v>
       </c>
-      <c r="BU17" t="n">
-        <v>-28596.018</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>-17016.49</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>45994.931</v>
+      <c r="BU17">
+        <v>-28568.749</v>
+      </c>
+      <c r="BV17">
+        <v>-17333.732</v>
+      </c>
+      <c r="BW17">
+        <v>46028.209</v>
+      </c>
+      <c r="BX17">
+        <v>22196.883</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>CurrentExports of goods and services</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
+    <row r="18" spans="1:76">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18">
         <v>2488</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>2422</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>2351</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>2040</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>2638</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>3113</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>2822</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>2821</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>3513</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>3609</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>4063</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>4091</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>3999</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>4407</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>5297</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>5389</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>5242</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>5121</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>7767</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>11043</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>10172</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>14554</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>16216</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>18585</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18">
         <v>26004</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18">
         <v>30676</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18">
         <v>30154</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18">
         <v>31846</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18">
         <v>36298</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18">
         <v>43171</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18">
         <v>42537</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18">
         <v>40305</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18">
         <v>50998</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18">
         <v>61348</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18">
         <v>75112</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18">
         <v>88675</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18">
         <v>105161</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18">
         <v>114494</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18">
         <v>135896</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18">
         <v>174255</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18">
         <v>209323</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX18">
         <v>232358</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY18">
         <v>262714</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ18">
         <v>325325</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA18">
         <v>364105</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BB18">
         <v>427003</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC18">
         <v>389256</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD18">
         <v>415040</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BE18">
         <v>447846</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BF18">
         <v>546925</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BG18">
         <v>613694</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BH18">
         <v>669505</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BI18">
         <v>706382</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BJ18">
         <v>766096</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BK18">
         <v>651671</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BL18">
         <v>714075</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BM18">
         <v>777302</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BN18">
         <v>770202</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BO18">
         <v>770368</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BP18">
         <v>816483</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BQ18">
         <v>817370.247</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BR18">
         <v>834491.202</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BS18">
         <v>960778.026</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BT18">
         <v>992511.204</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BU18">
         <v>987481.424</v>
       </c>
-      <c r="BV18" t="n">
-        <v>870271.8</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>1063934.148</v>
+      <c r="BV18">
+        <v>873477.424</v>
+      </c>
+      <c r="BW18">
+        <v>1063817.18</v>
+      </c>
+      <c r="BX18">
+        <v>292981.629</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>CurrentImports of goods and services</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
+    <row r="19" spans="1:76">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
         <v>1580</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>1801</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>1870</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>1704</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>1790</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>2303</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>2421</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>2643</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>3380</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>3467</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>3658</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>3711</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>3761</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>4048</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>4153</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>4888</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>5056</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>5313</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>6712</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>10989</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>10071</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>11620</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>13788</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>16477</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>21884</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19">
         <v>29342</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19">
         <v>33717</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19">
         <v>37300</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19">
         <v>39793</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19">
         <v>41653</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19">
         <v>38561</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19">
         <v>35941</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19">
         <v>39752</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19">
         <v>51920</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19">
         <v>68730</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19">
         <v>86241</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19">
         <v>110107</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19">
         <v>112450</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19">
         <v>136068</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19">
         <v>177389</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19">
         <v>218077</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX19">
         <v>228843</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY19">
         <v>260310</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ19">
         <v>265536</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA19">
         <v>289514</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB19">
         <v>358529</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BC19">
         <v>327765</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD19">
         <v>348919</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BE19">
         <v>365383</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BF19">
         <v>450350</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BG19">
         <v>494414</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BH19">
         <v>539443</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BI19">
         <v>574172</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BJ19">
         <v>594160</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BK19">
         <v>507142</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BL19">
         <v>583337</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BM19">
         <v>635316</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BN19">
         <v>665714</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BO19">
         <v>683408</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BP19">
         <v>713863</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BQ19">
         <v>728778.243</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BR19">
         <v>751362.8</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BS19">
         <v>866523.51</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BT19">
         <v>895405.371</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="BU19">
         <v>873618.0820000001</v>
       </c>
-      <c r="BV19" t="n">
-        <v>779010.579</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>954783.0870000001</v>
+      <c r="BV19">
+        <v>783152.329</v>
+      </c>
+      <c r="BW19">
+        <v>953972.187</v>
+      </c>
+      <c r="BX19">
+        <v>267414.084</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>CurrentGross National Income</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="n">
+    <row r="20" spans="1:76">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB20">
         <v>327492</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC20">
         <v>326956</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD20">
         <v>358152</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BE20">
         <v>396232</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BF20">
         <v>449646</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BG20">
         <v>519635</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BH20">
         <v>579490</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BI20">
         <v>651355</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BJ20">
         <v>746915</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BK20">
         <v>698642</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BL20">
         <v>795303.497</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BM20">
         <v>890132.874</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BN20">
         <v>935409.627</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BO20">
         <v>984639</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BP20">
         <v>1069819</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BQ20">
         <v>1144829.265</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BR20">
         <v>1215105.339</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BS20">
         <v>1333651.56</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BT20">
         <v>1402677.451</v>
       </c>
-      <c r="BU20" t="n">
-        <v>1473661.584</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>1388020.97</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>1498022.628</v>
+      <c r="BU20">
+        <v>1473241.936</v>
+      </c>
+      <c r="BV20">
+        <v>1389480.144</v>
+      </c>
+      <c r="BW20">
+        <v>1503821.059</v>
+      </c>
+      <c r="BX20">
+        <v>402316.73</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>CurrentMid-year population</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:76">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>5860</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5960</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>6100</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>6230</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>6400</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>6600</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>6790</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>6960</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>7170</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>7390</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>7630</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>7870</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>8140</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>8417</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>8691</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>8963</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>9233</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>9502</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>9771</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>10040</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>10309</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>10580</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>10853</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>11428</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>11568</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>11756</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>11868</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>11742</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>12177</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>12494</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>12819</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>13439</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21">
         <v>13879.2</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21">
         <v>14256.9</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21">
         <v>14651</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21">
         <v>15048</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21">
         <v>15450</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21">
         <v>15882</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21">
         <v>16329</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21">
         <v>16774</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21">
         <v>17219</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21">
         <v>17662</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21">
         <v>18102</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21">
         <v>18380</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21">
         <v>19607</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AU21">
         <v>19602</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AV21">
         <v>20142</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW21">
         <v>20682</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AX21">
         <v>21223</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AY21">
         <v>21769</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="AZ21">
         <v>22334</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BA21">
         <v>22909</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB21">
         <v>23495</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BC21">
         <v>24013</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD21">
         <v>24527</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BE21">
         <v>25048</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BF21">
         <v>25581</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BG21">
         <v>26046</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BH21">
         <v>26550</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BI21">
         <v>27058</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BJ21">
         <v>27568</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BK21">
         <v>28082</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BL21">
         <v>28589</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BM21">
         <v>29062</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BN21">
         <v>29510</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BO21">
         <v>30214</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BP21">
         <v>30709</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BQ21">
         <v>31186.135</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BR21">
         <v>31633.518</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BS21">
         <v>32022.575</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BT21">
         <v>32382.275</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="BU21">
         <v>32523.048</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="BV21">
         <v>32583.998</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="BW21">
         <v>32655.365</v>
       </c>
+      <c r="BX21">
+        <v>32715.46</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>CurrentGross national savings</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="n">
+    <row r="22" spans="1:76">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO22">
         <v>25753.42</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22">
         <v>29562.27</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ22">
         <v>32653.66</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR22">
         <v>36637.3</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22">
         <v>40059.98</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22">
         <v>48432.73</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU22">
         <v>60514.75</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22">
         <v>66829.63</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW22">
         <v>76665.77</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX22">
         <v>95542.33</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY22">
         <v>106094.91</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ22">
         <v>114785.75</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA22">
         <v>117081.43</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB22">
         <v>128009</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC22">
         <v>113714</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD22">
         <v>125444</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE22">
         <v>145952</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BF22">
         <v>166568</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BG22">
         <v>200109</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BH22">
         <v>231519</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BI22">
         <v>257943</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BJ22">
         <v>296630</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BK22">
         <v>237869</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BL22">
         <v>274921</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BM22">
         <v>310739</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BN22">
         <v>300262</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BO22">
         <v>299684</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BP22">
         <v>324916</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BQ22">
         <v>334383.415</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BR22">
         <v>354772.586</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BS22">
         <v>388884.564</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BT22">
         <v>378272.223</v>
       </c>
-      <c r="BU22" t="n">
-        <v>371343.162</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>339549.344</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>453061.678</v>
+      <c r="BU22">
+        <v>371322.211</v>
+      </c>
+      <c r="BV22">
+        <v>338423.827</v>
+      </c>
+      <c r="BW22">
+        <v>402874.126</v>
+      </c>
+      <c r="BX22">
+        <v>105765.1143851235</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>